--- a/Test Case Web dan Mobile.xlsx
+++ b/Test Case Web dan Mobile.xlsx
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F5" activeCellId="1" sqref="F5 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Case Web dan Mobile.xlsx
+++ b/Test Case Web dan Mobile.xlsx
@@ -527,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -552,12 +552,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -871,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" activeCellId="1" sqref="F5 F5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,20 +886,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1053,8 +1047,8 @@
       <c r="J5" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>25</v>
+      <c r="K5" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>15</v>
@@ -1091,8 +1085,8 @@
       <c r="J6" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>25</v>
+      <c r="K6" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>15</v>
@@ -1126,7 +1120,7 @@
       <c r="I7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1164,7 +1158,7 @@
       <c r="I8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="9" t="s">
         <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -1202,7 +1196,7 @@
       <c r="I9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="9" t="s">
         <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -1240,7 +1234,7 @@
       <c r="I10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="9" t="s">
         <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -1278,7 +1272,7 @@
       <c r="I11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -1316,7 +1310,7 @@
       <c r="I12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -1327,7 +1321,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1354,7 +1348,7 @@
       <c r="I13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="9" t="s">
         <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
@@ -1365,7 +1359,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1392,7 +1386,7 @@
       <c r="I14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="9" t="s">
         <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -1403,7 +1397,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1430,7 +1424,7 @@
       <c r="I15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="9" t="s">
         <v>70</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -1441,7 +1435,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1468,7 +1462,7 @@
       <c r="I16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="9" t="s">
         <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -1479,7 +1473,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1506,7 +1500,7 @@
       <c r="I17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="9" t="s">
         <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
@@ -1517,7 +1511,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1544,7 +1538,7 @@
       <c r="I18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="9" t="s">
         <v>84</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -1555,20 +1549,20 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
